--- a/@单周期硬布线控制器表达式自动生成.xlsx
+++ b/@单周期硬布线控制器表达式自动生成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirvana/Desktop/Hust/2020A/组原课设/CO2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C40011-35FF-8F4B-8C89-57B657B0F502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1753E331-5F3C-7F46-8F12-0F0E6673960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="460" windowWidth="25900" windowHeight="20680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="25900" windowHeight="20680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AL$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -1570,17 +1562,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2104,7 +2086,7 @@
   <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+      <selection activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5139,24 +5121,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q28" s="33" t="str">
+      <c r="Q28" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R28" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R28" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S28" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="S28" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U28" s="59" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="U28" s="59">
+        <v>5</v>
       </c>
       <c r="V28" s="60"/>
       <c r="W28" s="60">
@@ -8347,12 +8329,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL3">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AN3">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8367,12 +8349,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AI3">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8452,7 +8434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8483,7 +8465,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA73" sqref="AA73"/>
+      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -13267,7 +13249,7 @@
       </c>
       <c r="R28" s="31" t="str">
         <f>IF(真值表!R28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="S28" s="31" t="str">
         <f>IF(真值表!S28=1,$P28&amp;"+","")</f>
@@ -13275,7 +13257,7 @@
       </c>
       <c r="T28" s="31" t="str">
         <f>IF(真值表!T28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="U28" s="31" t="str">
         <f>IF(真值表!V28=1,$P28&amp;"+","")</f>
@@ -19137,7 +19119,7 @@
       </c>
       <c r="R62" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="S62" s="34" t="str">
         <f t="shared" si="1"/>
@@ -19145,7 +19127,7 @@
       </c>
       <c r="T62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="U62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19248,7 +19230,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="2"/>
@@ -19256,7 +19238,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="2"/>
@@ -19407,22 +19389,22 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="P1 Q63:AX63 Q62:AQ62">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64:AF64 Q68:AF1048576 Q67 S67:AF67 Q66:AF66 Q65:V65 Q2:AQ3 Q1:AK1">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG64:AJ1048576 AG1:AQ1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:AQ61">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/@单周期硬布线控制器表达式自动生成.xlsx
+++ b/@单周期硬布线控制器表达式自动生成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirvana/Desktop/Hust/2020A/组原课设/CO2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1753E331-5F3C-7F46-8F12-0F0E6673960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EAA49F-71C5-8245-9807-EE4D40186651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="460" windowWidth="25900" windowHeight="20680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="460" windowWidth="25900" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -857,6 +857,14 @@
     <t>ERET</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>R1U</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2U</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1345,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,6 +1559,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -2085,11 +2096,11 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
@@ -2104,7 +2115,7 @@
     <col min="34" max="44" width="6.6640625" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="17" customFormat="1" ht="28">
+    <row r="1" spans="1:44" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2220,10 +2231,10 @@
         <v>121</v>
       </c>
       <c r="AM1" s="58" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="AN1" s="58" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="AO1" s="58" t="s">
         <v>33</v>
@@ -2238,7 +2249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" ht="16" customHeight="1">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -2339,14 +2350,16 @@
       <c r="AJ2" s="61"/>
       <c r="AK2" s="61"/>
       <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39">
+        <v>1</v>
+      </c>
       <c r="AO2" s="61"/>
       <c r="AP2" s="61"/>
       <c r="AQ2" s="61"/>
       <c r="AR2" s="61"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" ht="16" customHeight="1">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -2447,14 +2460,16 @@
       <c r="AJ3" s="64"/>
       <c r="AK3" s="64"/>
       <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72">
+        <v>1</v>
+      </c>
       <c r="AO3" s="64"/>
       <c r="AP3" s="64"/>
       <c r="AQ3" s="64"/>
       <c r="AR3" s="64"/>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" ht="16" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -2555,14 +2570,16 @@
       <c r="AJ4" s="61"/>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24">
+        <v>1</v>
+      </c>
       <c r="AO4" s="61"/>
       <c r="AP4" s="61"/>
       <c r="AQ4" s="61"/>
       <c r="AR4" s="61"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" ht="16" customHeight="1">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -2663,14 +2680,18 @@
       <c r="AJ5" s="64"/>
       <c r="AK5" s="64"/>
       <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
+      <c r="AM5" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="72">
+        <v>1</v>
+      </c>
       <c r="AO5" s="64"/>
       <c r="AP5" s="64"/>
       <c r="AQ5" s="64"/>
       <c r="AR5" s="64"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" ht="16" customHeight="1">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -2771,14 +2792,18 @@
       <c r="AJ6" s="61"/>
       <c r="AK6" s="61"/>
       <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
+      <c r="AM6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="24">
+        <v>1</v>
+      </c>
       <c r="AO6" s="61"/>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="61"/>
       <c r="AR6" s="61"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" ht="16" customHeight="1">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -2879,14 +2904,18 @@
       <c r="AJ7" s="64"/>
       <c r="AK7" s="64"/>
       <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
+      <c r="AM7" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="72">
+        <v>1</v>
+      </c>
       <c r="AO7" s="64"/>
       <c r="AP7" s="64"/>
       <c r="AQ7" s="64"/>
       <c r="AR7" s="64"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" ht="16" customHeight="1">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -2987,14 +3016,18 @@
       <c r="AJ8" s="61"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
+      <c r="AM8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="24">
+        <v>1</v>
+      </c>
       <c r="AO8" s="61"/>
       <c r="AP8" s="61"/>
       <c r="AQ8" s="61"/>
       <c r="AR8" s="61"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" ht="16" customHeight="1">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -3095,14 +3128,18 @@
       <c r="AJ9" s="64"/>
       <c r="AK9" s="64"/>
       <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
+      <c r="AM9" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="72">
+        <v>1</v>
+      </c>
       <c r="AO9" s="64"/>
       <c r="AP9" s="64"/>
       <c r="AQ9" s="64"/>
       <c r="AR9" s="64"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" ht="16" customHeight="1">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -3203,14 +3240,18 @@
       <c r="AJ10" s="61"/>
       <c r="AK10" s="61"/>
       <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
+      <c r="AM10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="24">
+        <v>1</v>
+      </c>
       <c r="AO10" s="61"/>
       <c r="AP10" s="61"/>
       <c r="AQ10" s="61"/>
       <c r="AR10" s="61"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" ht="16" customHeight="1">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -3311,14 +3352,18 @@
       <c r="AJ11" s="64"/>
       <c r="AK11" s="64"/>
       <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
+      <c r="AM11" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="72">
+        <v>1</v>
+      </c>
       <c r="AO11" s="64"/>
       <c r="AP11" s="64"/>
       <c r="AQ11" s="64"/>
       <c r="AR11" s="64"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" ht="16" customHeight="1">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -3419,14 +3464,18 @@
       <c r="AJ12" s="61"/>
       <c r="AK12" s="61"/>
       <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
+      <c r="AM12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="24">
+        <v>1</v>
+      </c>
       <c r="AO12" s="61"/>
       <c r="AP12" s="61"/>
       <c r="AQ12" s="61"/>
       <c r="AR12" s="61"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" ht="16" customHeight="1">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3529,14 +3578,16 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="64"/>
       <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
+      <c r="AM13" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="72"/>
       <c r="AO13" s="64"/>
       <c r="AP13" s="64"/>
       <c r="AQ13" s="64"/>
       <c r="AR13" s="64"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" ht="16" customHeight="1">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -3637,14 +3688,18 @@
       <c r="AJ14" s="61"/>
       <c r="AK14" s="61"/>
       <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
+      <c r="AM14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="24">
+        <v>1</v>
+      </c>
       <c r="AO14" s="61"/>
       <c r="AP14" s="61"/>
       <c r="AQ14" s="61"/>
       <c r="AR14" s="61"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" ht="16" customHeight="1">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -3743,14 +3798,14 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
       <c r="AO15" s="64"/>
       <c r="AP15" s="64"/>
       <c r="AQ15" s="64"/>
       <c r="AR15" s="64"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" ht="16" customHeight="1">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -3853,14 +3908,14 @@
       <c r="AJ16" s="61"/>
       <c r="AK16" s="61"/>
       <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
       <c r="AO16" s="61"/>
       <c r="AP16" s="61"/>
       <c r="AQ16" s="61"/>
       <c r="AR16" s="61"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" ht="16" customHeight="1">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -3959,14 +4014,18 @@
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
       <c r="AL17" s="64"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="64"/>
+      <c r="AM17" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="72">
+        <v>1</v>
+      </c>
       <c r="AO17" s="64"/>
       <c r="AP17" s="64"/>
       <c r="AQ17" s="64"/>
       <c r="AR17" s="64"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" ht="16" customHeight="1">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -4065,14 +4124,18 @@
       <c r="AJ18" s="61"/>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
+      <c r="AM18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="24">
+        <v>1</v>
+      </c>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="61"/>
       <c r="AR18" s="61"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" ht="16" customHeight="1">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -4175,14 +4238,16 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="64"/>
       <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
+      <c r="AM19" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="72"/>
       <c r="AO19" s="64"/>
       <c r="AP19" s="64"/>
       <c r="AQ19" s="64"/>
       <c r="AR19" s="64"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" ht="16" customHeight="1">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -4283,14 +4348,16 @@
       <c r="AJ20" s="61"/>
       <c r="AK20" s="61"/>
       <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
+      <c r="AM20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="24"/>
       <c r="AO20" s="61"/>
       <c r="AP20" s="61"/>
       <c r="AQ20" s="61"/>
       <c r="AR20" s="61"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" ht="16" customHeight="1">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -4393,14 +4460,16 @@
       <c r="AJ21" s="64"/>
       <c r="AK21" s="64"/>
       <c r="AL21" s="64"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="64"/>
+      <c r="AM21" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="72"/>
       <c r="AO21" s="64"/>
       <c r="AP21" s="64"/>
       <c r="AQ21" s="64"/>
       <c r="AR21" s="64"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" ht="16" customHeight="1">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -4503,14 +4572,16 @@
       <c r="AJ22" s="61"/>
       <c r="AK22" s="61"/>
       <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
+      <c r="AM22" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="24"/>
       <c r="AO22" s="61"/>
       <c r="AP22" s="61"/>
       <c r="AQ22" s="61"/>
       <c r="AR22" s="61"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" ht="16" customHeight="1">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -4611,14 +4682,16 @@
       <c r="AJ23" s="64"/>
       <c r="AK23" s="64"/>
       <c r="AL23" s="64"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
+      <c r="AM23" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="72"/>
       <c r="AO23" s="64"/>
       <c r="AP23" s="64"/>
       <c r="AQ23" s="64"/>
       <c r="AR23" s="64"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" ht="16" customHeight="1">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -4723,14 +4796,16 @@
       <c r="AJ24" s="61"/>
       <c r="AK24" s="61"/>
       <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
+      <c r="AM24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="24"/>
       <c r="AO24" s="61"/>
       <c r="AP24" s="61"/>
       <c r="AQ24" s="61"/>
       <c r="AR24" s="61"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" ht="16" customHeight="1">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -4833,14 +4908,18 @@
       <c r="AJ25" s="64"/>
       <c r="AK25" s="64"/>
       <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="64"/>
+      <c r="AM25" s="72">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="72">
+        <v>1</v>
+      </c>
       <c r="AO25" s="64"/>
       <c r="AP25" s="64"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="64"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" ht="16" customHeight="1">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -4943,14 +5022,18 @@
       <c r="AJ26" s="61"/>
       <c r="AK26" s="61"/>
       <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
+      <c r="AM26" s="61">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="61">
+        <v>1</v>
+      </c>
       <c r="AO26" s="61"/>
       <c r="AP26" s="61"/>
       <c r="AQ26" s="61"/>
       <c r="AR26" s="61"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" ht="16" customHeight="1">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -5053,14 +5136,18 @@
       <c r="AJ27" s="64"/>
       <c r="AK27" s="64"/>
       <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
+      <c r="AM27" s="64">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="64">
+        <v>1</v>
+      </c>
       <c r="AO27" s="64"/>
       <c r="AP27" s="64"/>
       <c r="AQ27" s="64"/>
       <c r="AR27" s="64"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" ht="16" customHeight="1">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -5165,14 +5252,18 @@
       </c>
       <c r="AK28" s="61"/>
       <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
+      <c r="AM28" s="61">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="61">
+        <v>1</v>
+      </c>
       <c r="AO28" s="61"/>
       <c r="AP28" s="61"/>
       <c r="AQ28" s="61"/>
       <c r="AR28" s="61"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" ht="16" customHeight="1">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -5271,14 +5362,16 @@
         <v>1</v>
       </c>
       <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
+      <c r="AM29" s="64">
+        <v>1</v>
+      </c>
       <c r="AN29" s="64"/>
       <c r="AO29" s="64"/>
       <c r="AP29" s="64"/>
       <c r="AQ29" s="64"/>
       <c r="AR29" s="64"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" ht="16" customHeight="1">
       <c r="A30" s="38">
         <v>29</v>
       </c>
@@ -5384,11 +5477,11 @@
       <c r="AQ30" s="61"/>
       <c r="AR30" s="61"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" ht="16" customHeight="1">
       <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="47"/>
       <c r="E31" s="53" t="str">
@@ -5480,11 +5573,11 @@
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" ht="16" customHeight="1">
       <c r="A32" s="38">
         <v>31</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="str">
@@ -5576,7 +5669,7 @@
       <c r="AQ32" s="61"/>
       <c r="AR32" s="61"/>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" ht="16" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="52"/>
       <c r="C33" s="46"/>
@@ -5670,7 +5763,7 @@
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" ht="16" customHeight="1">
       <c r="A34" s="38"/>
       <c r="B34" s="35"/>
       <c r="C34" s="39"/>
@@ -5764,7 +5857,7 @@
       <c r="AQ34" s="61"/>
       <c r="AR34" s="61"/>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" ht="16" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="52"/>
       <c r="C35" s="46"/>
@@ -5858,7 +5951,7 @@
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" ht="16" customHeight="1">
       <c r="A36" s="38"/>
       <c r="B36" s="35"/>
       <c r="C36" s="39"/>
@@ -5952,7 +6045,7 @@
       <c r="AQ36" s="61"/>
       <c r="AR36" s="61"/>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" ht="16" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="52"/>
       <c r="C37" s="46"/>
@@ -6046,7 +6139,7 @@
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" ht="16" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="35"/>
       <c r="C38" s="39"/>
@@ -6140,7 +6233,7 @@
       <c r="AQ38" s="61"/>
       <c r="AR38" s="61"/>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" ht="16" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="52"/>
       <c r="C39" s="46"/>
@@ -6234,7 +6327,7 @@
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" ht="16" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="35"/>
       <c r="C40" s="39"/>
@@ -6328,7 +6421,7 @@
       <c r="AQ40" s="61"/>
       <c r="AR40" s="61"/>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" ht="16" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="52"/>
       <c r="C41" s="46"/>
@@ -6422,7 +6515,7 @@
       <c r="AQ41" s="64"/>
       <c r="AR41" s="64"/>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" ht="16" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="35"/>
       <c r="C42" s="39"/>
@@ -6516,7 +6609,7 @@
       <c r="AQ42" s="61"/>
       <c r="AR42" s="61"/>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" ht="16" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="52"/>
       <c r="C43" s="46"/>
@@ -6610,7 +6703,7 @@
       <c r="AQ43" s="64"/>
       <c r="AR43" s="64"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" ht="16" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="35"/>
       <c r="C44" s="39"/>
@@ -6704,7 +6797,7 @@
       <c r="AQ44" s="61"/>
       <c r="AR44" s="61"/>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" ht="16" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="52"/>
       <c r="C45" s="46"/>
@@ -6798,7 +6891,7 @@
       <c r="AQ45" s="64"/>
       <c r="AR45" s="64"/>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" ht="16" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="35"/>
       <c r="C46" s="39"/>
@@ -6892,7 +6985,7 @@
       <c r="AQ46" s="61"/>
       <c r="AR46" s="61"/>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" ht="16" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="52"/>
       <c r="C47" s="46"/>
@@ -6986,7 +7079,7 @@
       <c r="AQ47" s="64"/>
       <c r="AR47" s="64"/>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" ht="16" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="35"/>
       <c r="C48" s="39"/>
@@ -7080,7 +7173,7 @@
       <c r="AQ48" s="61"/>
       <c r="AR48" s="61"/>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" ht="16" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="52"/>
       <c r="C49" s="46"/>
@@ -7174,7 +7267,7 @@
       <c r="AQ49" s="64"/>
       <c r="AR49" s="64"/>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" ht="16" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="35"/>
       <c r="C50" s="39"/>
@@ -7268,7 +7361,7 @@
       <c r="AQ50" s="61"/>
       <c r="AR50" s="61"/>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" ht="16" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="52"/>
       <c r="C51" s="46"/>
@@ -7362,7 +7455,7 @@
       <c r="AQ51" s="64"/>
       <c r="AR51" s="64"/>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" ht="16" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="35"/>
       <c r="C52" s="39"/>
@@ -7456,7 +7549,7 @@
       <c r="AQ52" s="61"/>
       <c r="AR52" s="61"/>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" ht="16" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="52"/>
       <c r="C53" s="46"/>
@@ -7550,7 +7643,7 @@
       <c r="AQ53" s="64"/>
       <c r="AR53" s="64"/>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" ht="16" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="35"/>
       <c r="C54" s="39"/>
@@ -7644,7 +7737,7 @@
       <c r="AQ54" s="61"/>
       <c r="AR54" s="61"/>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" ht="16" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="52"/>
       <c r="C55" s="46"/>
@@ -7738,7 +7831,7 @@
       <c r="AQ55" s="64"/>
       <c r="AR55" s="64"/>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" ht="16" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="35"/>
       <c r="C56" s="39"/>
@@ -7832,7 +7925,7 @@
       <c r="AQ56" s="61"/>
       <c r="AR56" s="61"/>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" ht="16" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="52"/>
       <c r="C57" s="46"/>
@@ -7926,7 +8019,7 @@
       <c r="AQ57" s="64"/>
       <c r="AR57" s="64"/>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" ht="16" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="35"/>
       <c r="C58" s="39"/>
@@ -8020,7 +8113,7 @@
       <c r="AQ58" s="61"/>
       <c r="AR58" s="61"/>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" ht="16" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="52"/>
       <c r="C59" s="46"/>
@@ -8114,7 +8207,7 @@
       <c r="AQ59" s="64"/>
       <c r="AR59" s="64"/>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" ht="16" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="35"/>
       <c r="C60" s="39"/>
@@ -8208,7 +8301,7 @@
       <c r="AQ60" s="61"/>
       <c r="AR60" s="61"/>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" ht="16" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="52"/>
       <c r="C61" s="46"/>
@@ -8304,150 +8397,150 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="U1:AR1 U26:AR1048576 U2:U25 AH2:AR25" name="区域2"/>
-    <protectedRange sqref="A1:D1048576" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="U1:AR1 U26:AR1048576 U2:U25 AH2:AL25 AO2:AR25 B31:B32" name="区域2"/>
+    <protectedRange sqref="A1:D30 A33:D1048576 A31:A32 C31:D32" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="AM1">
-    <cfRule type="cellIs" priority="27" operator="notEqual">
+    <cfRule type="cellIs" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1">
-    <cfRule type="cellIs" priority="26" operator="notEqual">
+    <cfRule type="cellIs" priority="29" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AG1 V62:AG1048576">
-    <cfRule type="cellIs" priority="39" operator="notEqual">
+    <cfRule type="cellIs" priority="42" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK62:AL1048576">
+    <cfRule type="cellIs" priority="36" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AL3">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM62:AN1048576">
     <cfRule type="cellIs" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL3">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+  <conditionalFormatting sqref="AH62:AI1048576">
+    <cfRule type="cellIs" priority="28" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AI3">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AN3">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+  <conditionalFormatting sqref="AJ2:AJ3">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM62:AN1048576">
-    <cfRule type="cellIs" priority="30" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH62:AI1048576">
+  <conditionalFormatting sqref="AJ62:AJ1048576">
     <cfRule type="cellIs" priority="25" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI3">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ62:AJ1048576">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" priority="11" operator="notEqual">
+    <cfRule type="cellIs" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1">
-    <cfRule type="cellIs" priority="10" operator="notEqual">
+    <cfRule type="cellIs" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AP1 AO62:AP1048576">
+    <cfRule type="cellIs" priority="20" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AP3">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AR3">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ62:AR1048576">
     <cfRule type="cellIs" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP3">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR3">
+  <conditionalFormatting sqref="AK4:AL61">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ62:AR1048576">
-    <cfRule type="cellIs" priority="14" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK4:AL61">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AN61">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+  <conditionalFormatting sqref="AM26:AN61">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AI61">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AJ61">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26:AG61">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AP61">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AR61">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AL1">
-    <cfRule type="cellIs" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG25">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AN25">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B30 B33:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="U1 U26:U1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E1:J1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K1:P1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AH1:AR1048576 V1:AG1 V26:AG1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="V26:AG1048576 V1:AG1 AH1:AR1048576 B31:B32" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="V2:AG25" xr:uid="{DC211387-752D-5548-84E5-62DF4BFC2C2F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP(十进制)" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="U2:U25" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
   </dataValidations>
@@ -8463,9 +8556,9 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
+      <selection pane="bottomLeft" activeCell="AM62" sqref="AM62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -8631,11 +8724,11 @@
       </c>
       <c r="AL1" s="58" t="str">
         <f>真值表!AM1</f>
-        <v>XXX</v>
+        <v>R1U</v>
       </c>
       <c r="AM1" s="58" t="str">
         <f>真值表!AN1</f>
-        <v>XXX</v>
+        <v>R2U</v>
       </c>
       <c r="AN1" s="58" t="str">
         <f>真值表!AO1</f>
@@ -8809,7 +8902,7 @@
       </c>
       <c r="AM2" s="31" t="str">
         <f>IF(真值表!AN2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AN2" s="31" t="str">
         <f>IF(真值表!AO2=1,$P2&amp;"+","")</f>
@@ -8983,7 +9076,7 @@
       </c>
       <c r="AM3" s="51" t="str">
         <f>IF(真值表!AN3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AN3" s="51" t="str">
         <f>IF(真值表!AO3=1,$P3&amp;"+","")</f>
@@ -9157,7 +9250,7 @@
       </c>
       <c r="AM4" s="31" t="str">
         <f>IF(真值表!AN4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AN4" s="31" t="str">
         <f>IF(真值表!AO4=1,$P4&amp;"+","")</f>
@@ -9327,11 +9420,11 @@
       </c>
       <c r="AL5" s="51" t="str">
         <f>IF(真值表!AM5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM5" s="51" t="str">
         <f>IF(真值表!AN5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AN5" s="51" t="str">
         <f>IF(真值表!AO5=1,$P5&amp;"+","")</f>
@@ -9501,11 +9594,11 @@
       </c>
       <c r="AL6" s="31" t="str">
         <f>IF(真值表!AM6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AM6" s="31" t="str">
         <f>IF(真值表!AN6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AN6" s="31" t="str">
         <f>IF(真值表!AO6=1,$P6&amp;"+","")</f>
@@ -9675,11 +9768,11 @@
       </c>
       <c r="AL7" s="51" t="str">
         <f>IF(真值表!AM7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM7" s="51" t="str">
         <f>IF(真值表!AN7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AN7" s="51" t="str">
         <f>IF(真值表!AO7=1,$P7&amp;"+","")</f>
@@ -9849,11 +9942,11 @@
       </c>
       <c r="AL8" s="31" t="str">
         <f>IF(真值表!AM8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM8" s="31" t="str">
         <f>IF(真值表!AN8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AN8" s="31" t="str">
         <f>IF(真值表!AO8=1,$P8&amp;"+","")</f>
@@ -10023,11 +10116,11 @@
       </c>
       <c r="AL9" s="51" t="str">
         <f>IF(真值表!AM9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AM9" s="51" t="str">
         <f>IF(真值表!AN9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AN9" s="51" t="str">
         <f>IF(真值表!AO9=1,$P9&amp;"+","")</f>
@@ -10197,11 +10290,11 @@
       </c>
       <c r="AL10" s="31" t="str">
         <f>IF(真值表!AM10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM10" s="31" t="str">
         <f>IF(真值表!AN10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AN10" s="31" t="str">
         <f>IF(真值表!AO10=1,$P10&amp;"+","")</f>
@@ -10371,11 +10464,11 @@
       </c>
       <c r="AL11" s="51" t="str">
         <f>IF(真值表!AM11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM11" s="51" t="str">
         <f>IF(真值表!AN11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AN11" s="51" t="str">
         <f>IF(真值表!AO11=1,$P11&amp;"+","")</f>
@@ -10545,11 +10638,11 @@
       </c>
       <c r="AL12" s="31" t="str">
         <f>IF(真值表!AM12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM12" s="31" t="str">
         <f>IF(真值表!AN12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AN12" s="31" t="str">
         <f>IF(真值表!AO12=1,$P12&amp;"+","")</f>
@@ -10719,7 +10812,7 @@
       </c>
       <c r="AL13" s="51" t="str">
         <f>IF(真值表!AM13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM13" s="51" t="str">
         <f>IF(真值表!AN13=1,$P13&amp;"+","")</f>
@@ -10893,11 +10986,11 @@
       </c>
       <c r="AL14" s="31" t="str">
         <f>IF(真值表!AM14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM14" s="31" t="str">
         <f>IF(真值表!AN14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AN14" s="31" t="str">
         <f>IF(真值表!AO14=1,$P14&amp;"+","")</f>
@@ -11415,11 +11508,11 @@
       </c>
       <c r="AL17" s="51" t="str">
         <f>IF(真值表!AM17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AM17" s="51" t="str">
         <f>IF(真值表!AN17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AN17" s="51" t="str">
         <f>IF(真值表!AO17=1,$P17&amp;"+","")</f>
@@ -11589,11 +11682,11 @@
       </c>
       <c r="AL18" s="31" t="str">
         <f>IF(真值表!AM18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM18" s="31" t="str">
         <f>IF(真值表!AN18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AN18" s="31" t="str">
         <f>IF(真值表!AO18=1,$P18&amp;"+","")</f>
@@ -11763,7 +11856,7 @@
       </c>
       <c r="AL19" s="51" t="str">
         <f>IF(真值表!AM19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AM19" s="51" t="str">
         <f>IF(真值表!AN19=1,$P19&amp;"+","")</f>
@@ -11937,7 +12030,7 @@
       </c>
       <c r="AL20" s="31" t="str">
         <f>IF(真值表!AM20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AM20" s="31" t="str">
         <f>IF(真值表!AN20=1,$P20&amp;"+","")</f>
@@ -12111,7 +12204,7 @@
       </c>
       <c r="AL21" s="51" t="str">
         <f>IF(真值表!AM21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM21" s="51" t="str">
         <f>IF(真值表!AN21=1,$P21&amp;"+","")</f>
@@ -12285,7 +12378,7 @@
       </c>
       <c r="AL22" s="31" t="str">
         <f>IF(真值表!AM22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AM22" s="31" t="str">
         <f>IF(真值表!AN22=1,$P22&amp;"+","")</f>
@@ -12459,7 +12552,7 @@
       </c>
       <c r="AL23" s="51" t="str">
         <f>IF(真值表!AM23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM23" s="51" t="str">
         <f>IF(真值表!AN23=1,$P23&amp;"+","")</f>
@@ -12633,7 +12726,7 @@
       </c>
       <c r="AL24" s="31" t="str">
         <f>IF(真值表!AM24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AM24" s="31" t="str">
         <f>IF(真值表!AN24=1,$P24&amp;"+","")</f>
@@ -12807,11 +12900,11 @@
       </c>
       <c r="AL25" s="51" t="str">
         <f>IF(真值表!AM25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AM25" s="51" t="str">
         <f>IF(真值表!AN25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AN25" s="51" t="str">
         <f>IF(真值表!AO25=1,$P25&amp;"+","")</f>
@@ -12981,11 +13074,11 @@
       </c>
       <c r="AL26" s="31" t="str">
         <f>IF(真值表!AM26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM26" s="31" t="str">
         <f>IF(真值表!AN26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AN26" s="31" t="str">
         <f>IF(真值表!AO26=1,$P26&amp;"+","")</f>
@@ -13155,11 +13248,11 @@
       </c>
       <c r="AL27" s="51" t="str">
         <f>IF(真值表!AM27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM27" s="51" t="str">
         <f>IF(真值表!AN27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AN27" s="51" t="str">
         <f>IF(真值表!AO27=1,$P27&amp;"+","")</f>
@@ -13329,11 +13422,11 @@
       </c>
       <c r="AL28" s="31" t="str">
         <f>IF(真值表!AM28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM28" s="31" t="str">
         <f>IF(真值表!AN28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AN28" s="31" t="str">
         <f>IF(真值表!AO28=1,$P28&amp;"+","")</f>
@@ -13503,7 +13596,7 @@
       </c>
       <c r="AL29" s="51" t="str">
         <f>IF(真值表!AM29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AM29" s="51" t="str">
         <f>IF(真值表!AN29=1,$P29&amp;"+","")</f>
@@ -19095,24 +19188,24 @@
       </c>
     </row>
     <row r="62" spans="1:50" ht="17">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
       <c r="Q62" s="34" t="str">
         <f t="shared" ref="Q62:AQ62" si="1">IF(LEN(Q63)&gt;1,LEFT(Q63,LEN(Q63)-1),"")</f>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
@@ -19199,11 +19292,11 @@
       </c>
       <c r="AL62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AM62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AN62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19310,11 +19403,11 @@
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AM63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AN63" t="str">
         <f t="shared" si="2"/>
@@ -19363,19 +19456,19 @@
       </c>
     </row>
     <row r="65" spans="18:32" ht="21">
-      <c r="V65" s="73" t="s">
+      <c r="V65" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="73"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="73"/>
-      <c r="AD65" s="73"/>
-      <c r="AE65" s="73"/>
-      <c r="AF65" s="73"/>
+      <c r="W65" s="74"/>
+      <c r="X65" s="74"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="74"/>
+      <c r="AA65" s="74"/>
+      <c r="AB65" s="74"/>
+      <c r="AC65" s="74"/>
+      <c r="AD65" s="74"/>
+      <c r="AE65" s="74"/>
+      <c r="AF65" s="74"/>
     </row>
     <row r="67" spans="18:32" ht="17">
       <c r="R67" s="37" t="s">
